--- a/T04_M4_D4_support_files/T04_M4_D4_Excel_Attempt.xlsx
+++ b/T04_M4_D4_support_files/T04_M4_D4_Excel_Attempt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Project\M4\Team_04\T04_M4_D4_support_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1507D96F-2C19-4689-8BDA-172D293D82FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD2D0AD-1E2F-4FF1-9192-D332D2E424BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9072" activeTab="2" xr2:uid="{46F9BDAC-CC60-4E02-A65F-AB144A3B0F32}"/>
   </bookViews>
@@ -19,9 +19,9 @@
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="96" r:id="rId4"/>
-    <pivotCache cacheId="99" r:id="rId5"/>
-    <pivotCache cacheId="134" r:id="rId6"/>
+    <pivotCache cacheId="23" r:id="rId4"/>
+    <pivotCache cacheId="35" r:id="rId5"/>
+    <pivotCache cacheId="50" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Values</t>
   </si>
@@ -93,7 +93,19 @@
     <t>RRV Actual Sales Amount In Dollars</t>
   </si>
   <si>
-    <t>Average Amount per instance</t>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>Average Sales</t>
   </si>
 </sst>
 </file>
@@ -154,9 +166,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Aanup" refreshedDate="43232.525688425929" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D006E0DF-4119-4696-A705-AC7D301D648B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Aanup" refreshedDate="43235.924427893522" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D006E0DF-4119-4696-A705-AC7D301D648B}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="45">
+  <cacheFields count="62">
     <cacheField name="[Measures].[RRV SALES Count]" caption="RRV SALES Count" numFmtId="0" hierarchy="185" level="32767"/>
     <cacheField name="[PACKAGE].[Bathroom].[PKG Bathroom]" caption="PKG Bathroom" numFmtId="0" hierarchy="62" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
@@ -288,6 +300,62 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[PACKAGE].[Seat Material].[Individual Package].[PKG Walls]" caption="PKG Walls" propertyName="PKG Walls" numFmtId="0" hierarchy="74" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[PDAT Month Number].[PDAT Month Number]" caption="PDAT Month Number" numFmtId="0" hierarchy="104" level="1">
+      <sharedItems count="1">
+        <s v="[PURCHASE DATE].[PDAT Month Number].&amp;[12]" c="12"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Year]" caption="PDAT Year" numFmtId="0" hierarchy="111" level="1">
+      <sharedItems count="2">
+        <s v="[PURCHASE DATE].[Year-Mon-Day].[PDAT Year].[2012]" c="2012"/>
+        <s v="[PURCHASE DATE].[Year-Mon-Day].[PDAT Year].[2016]" u="1" c="2016"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY]" caption="PDAT Month KEY" numFmtId="0" hierarchy="111" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key]" caption="PDAT Key" numFmtId="0" hierarchy="111" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Month Abbreviation]" caption="PDAT Month Abbreviation" propertyName="PDAT Month Abbreviation" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Month Name]" caption="PDAT Month Name" propertyName="PDAT Month Name" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Month Number]" caption="PDAT Month Number" propertyName="PDAT Month Number" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Year]" caption="PDAT Year" propertyName="PDAT Year" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Date]" caption="PDAT Date" propertyName="PDAT Date" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Month]" caption="PDAT Day Of Month" propertyName="PDAT Day Of Month" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Quarter]" caption="PDAT Day Of Quarter" propertyName="PDAT Day Of Quarter" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Week]" caption="PDAT Day Of Week" propertyName="PDAT Day Of Week" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Year]" caption="PDAT Day Of Year" propertyName="PDAT Day Of Year" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Full Date Description]" caption="PDAT Full Date Description" propertyName="PDAT Full Date Description" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Month KEY]" caption="PDAT Month KEY" propertyName="PDAT Month KEY" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Week]" caption="PDAT Week" propertyName="PDAT Week" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Weekday Or Weekend]" caption="PDAT Weekday Or Weekend" propertyName="PDAT Weekday Or Weekend" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -400,7 +468,7 @@
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Model Year]" caption="PRD Model Year" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Model Year].[All]" allUniqueName="[PRODUCT].[PRD Model Year].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Vehicle Type ID]" caption="PRD Vehicle Type ID" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Vehicle Type ID].[All]" allUniqueName="[PRODUCT].[PRD Vehicle Type ID].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Wholesale Price]" caption="PRD Wholesale Price" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Wholesale Price].[All]" allUniqueName="[PRODUCT].[PRD Wholesale Price].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Date]" caption="PDAT Date" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Date].[All]" allUniqueName="[PURCHASE DATE].[PDAT Date].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Date]" caption="PDAT Date" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Date].[All]" allUniqueName="[PURCHASE DATE].[PDAT Date].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Day Of Month]" caption="PDAT Day Of Month" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Day Of Month].[All]" allUniqueName="[PURCHASE DATE].[PDAT Day Of Month].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Day Of Quarter]" caption="PDAT Day Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Day Of Quarter].[All]" allUniqueName="[PURCHASE DATE].[PDAT Day Of Quarter].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Day Of Week]" caption="PDAT Day Of Week" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Day Of Week].[All]" allUniqueName="[PURCHASE DATE].[PDAT Day Of Week].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
@@ -408,15 +476,27 @@
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Full Date Description]" caption="PDAT Full Date Description" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Full Date Description].[All]" allUniqueName="[PURCHASE DATE].[PDAT Full Date Description].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Abbreviation]" caption="PDAT Month Abbreviation" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Abbreviation].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Abbreviation].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Name]" caption="PDAT Month Name" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Name].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Name].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Number]" caption="PDAT Month Number" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Number]" caption="PDAT Month Number" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="45"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Quarter]" caption="PDAT Quarter" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Quarter].[All]" allUniqueName="[PURCHASE DATE].[PDAT Quarter].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Quarter Abbreviation]" caption="PDAT Quarter Abbreviation" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Quarter Abbreviation].[All]" allUniqueName="[PURCHASE DATE].[PDAT Quarter Abbreviation].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Quarter Name]" caption="PDAT Quarter Name" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Quarter Name].[All]" allUniqueName="[PURCHASE DATE].[PDAT Quarter Name].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Week Of Quarter]" caption="PDAT Week Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Week Of Quarter].[All]" allUniqueName="[PURCHASE DATE].[PDAT Week Of Quarter].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Week Of Year]" caption="PDAT Week Of Year" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Week Of Year].[All]" allUniqueName="[PURCHASE DATE].[PDAT Week Of Year].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Weekday Or Weekend]" caption="PDAT Weekday Or Weekend" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Weekday Or Weekend].[All]" allUniqueName="[PURCHASE DATE].[PDAT Weekday Or Weekend].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Mon-Day]" caption="Year-Mon-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day]" caption="Year-Qtr-Week-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Mon-Day]" caption="Year-Mon-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="46"/>
+        <fieldUsage x="47"/>
+        <fieldUsage x="48"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day]" caption="Year-Qtr-Week-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[SALES ORG].[Sales_Org]" caption="Sales_Org" defaultMemberUniqueName="[SALES ORG].[Sales_Org].[All]" allUniqueName="[SALES ORG].[Sales_Org].[All]" dimensionUniqueName="[SALES ORG]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[SALES ORG].[SORG Domain Manager Name]" caption="SORG Domain Manager Name" attribute="1" defaultMemberUniqueName="[SALES ORG].[SORG Domain Manager Name].[All]" allUniqueName="[SALES ORG].[SORG Domain Manager Name].[All]" dimensionUniqueName="[SALES ORG]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[SALES ORG].[SORG Domain Name]" caption="SORG Domain Name" attribute="1" defaultMemberUniqueName="[SALES ORG].[SORG Domain Name].[All]" allUniqueName="[SALES ORG].[SORG Domain Name].[All]" dimensionUniqueName="[SALES ORG]" displayFolder="" count="0" unbalanced="0"/>
@@ -567,9 +647,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Aanup" refreshedDate="43232.525690509261" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{986572E8-48EA-41DA-B21B-76BC86ACD249}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Aanup" refreshedDate="43235.925284837962" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{986572E8-48EA-41DA-B21B-76BC86ACD249}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="45">
+  <cacheFields count="62">
     <cacheField name="[PACKAGE].[Bathroom].[PKG Bathroom]" caption="PKG Bathroom" numFmtId="0" hierarchy="62" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
@@ -703,6 +783,61 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Measures].[RRV Actual Sales Amount In Dollars]" caption="RRV Actual Sales Amount In Dollars" numFmtId="0" hierarchy="180" level="32767"/>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Year]" caption="PDAT Year" numFmtId="0" hierarchy="111" level="1">
+      <sharedItems count="1">
+        <s v="[PURCHASE DATE].[Year-Mon-Day].[PDAT Year].[2012]" c="2012"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY]" caption="PDAT Month KEY" numFmtId="0" hierarchy="111" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key]" caption="PDAT Key" numFmtId="0" hierarchy="111" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Month Abbreviation]" caption="PDAT Month Abbreviation" propertyName="PDAT Month Abbreviation" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Month Name]" caption="PDAT Month Name" propertyName="PDAT Month Name" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Month Number]" caption="PDAT Month Number" propertyName="PDAT Month Number" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Year]" caption="PDAT Year" propertyName="PDAT Year" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Date]" caption="PDAT Date" propertyName="PDAT Date" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Month]" caption="PDAT Day Of Month" propertyName="PDAT Day Of Month" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Quarter]" caption="PDAT Day Of Quarter" propertyName="PDAT Day Of Quarter" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Week]" caption="PDAT Day Of Week" propertyName="PDAT Day Of Week" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Year]" caption="PDAT Day Of Year" propertyName="PDAT Day Of Year" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Full Date Description]" caption="PDAT Full Date Description" propertyName="PDAT Full Date Description" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Month KEY]" caption="PDAT Month KEY" propertyName="PDAT Month KEY" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Week]" caption="PDAT Week" propertyName="PDAT Week" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Weekday Or Weekend]" caption="PDAT Weekday Or Weekend" propertyName="PDAT Weekday Or Weekend" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[PDAT Month Number].[PDAT Month Number]" caption="PDAT Month Number" numFmtId="0" hierarchy="104" level="1">
+      <sharedItems count="1">
+        <s v="[PURCHASE DATE].[PDAT Month Number].&amp;[12]" c="12"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="187">
     <cacheHierarchy uniqueName="[CUSTOMER].[CUST ID]" caption="CUST ID" attribute="1" defaultMemberUniqueName="[CUSTOMER].[CUST ID].[All]" allUniqueName="[CUSTOMER].[CUST ID].[All]" dimensionUniqueName="[CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
@@ -821,15 +956,27 @@
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Full Date Description]" caption="PDAT Full Date Description" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Full Date Description].[All]" allUniqueName="[PURCHASE DATE].[PDAT Full Date Description].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Abbreviation]" caption="PDAT Month Abbreviation" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Abbreviation].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Abbreviation].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Name]" caption="PDAT Month Name" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Name].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Name].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Number]" caption="PDAT Month Number" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Number]" caption="PDAT Month Number" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="61"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Quarter]" caption="PDAT Quarter" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Quarter].[All]" allUniqueName="[PURCHASE DATE].[PDAT Quarter].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Quarter Abbreviation]" caption="PDAT Quarter Abbreviation" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Quarter Abbreviation].[All]" allUniqueName="[PURCHASE DATE].[PDAT Quarter Abbreviation].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Quarter Name]" caption="PDAT Quarter Name" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Quarter Name].[All]" allUniqueName="[PURCHASE DATE].[PDAT Quarter Name].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Week Of Quarter]" caption="PDAT Week Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Week Of Quarter].[All]" allUniqueName="[PURCHASE DATE].[PDAT Week Of Quarter].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Week Of Year]" caption="PDAT Week Of Year" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Week Of Year].[All]" allUniqueName="[PURCHASE DATE].[PDAT Week Of Year].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Weekday Or Weekend]" caption="PDAT Weekday Or Weekend" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Weekday Or Weekend].[All]" allUniqueName="[PURCHASE DATE].[PDAT Weekday Or Weekend].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Mon-Day]" caption="Year-Mon-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day]" caption="Year-Qtr-Week-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Mon-Day]" caption="Year-Mon-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="45"/>
+        <fieldUsage x="46"/>
+        <fieldUsage x="47"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day]" caption="Year-Qtr-Week-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[SALES ORG].[Sales_Org]" caption="Sales_Org" defaultMemberUniqueName="[SALES ORG].[Sales_Org].[All]" allUniqueName="[SALES ORG].[Sales_Org].[All]" dimensionUniqueName="[SALES ORG]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[SALES ORG].[SORG Domain Manager Name]" caption="SORG Domain Manager Name" attribute="1" defaultMemberUniqueName="[SALES ORG].[SORG Domain Manager Name].[All]" allUniqueName="[SALES ORG].[SORG Domain Manager Name].[All]" dimensionUniqueName="[SALES ORG]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[SALES ORG].[SORG Domain Name]" caption="SORG Domain Name" attribute="1" defaultMemberUniqueName="[SALES ORG].[SORG Domain Name].[All]" allUniqueName="[SALES ORG].[SORG Domain Name].[All]" dimensionUniqueName="[SALES ORG]" displayFolder="" count="0" unbalanced="0"/>
@@ -976,9 +1123,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Aanup" refreshedDate="43232.548696296297" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{C206984F-3638-4BF3-9D8C-EB7FD1230BC1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Aanup" refreshedDate="43235.926162615739" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{C206984F-3638-4BF3-9D8C-EB7FD1230BC1}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="46">
+  <cacheFields count="63">
     <cacheField name="[PACKAGE].[Bathroom].[PKG Bathroom]" caption="PKG Bathroom" numFmtId="0" hierarchy="62" level="1">
       <sharedItems count="1">
         <s v="[PACKAGE].[Bathroom].[PKG Bathroom].&amp;[Full]" c="Full"/>
@@ -1117,6 +1264,61 @@
     </cacheField>
     <cacheField name="[Measures].[RRV Actual Sales Amount In Dollars]" caption="RRV Actual Sales Amount In Dollars" numFmtId="0" hierarchy="180" level="32767"/>
     <cacheField name="[Measures].[RRV SALES Count]" caption="RRV SALES Count" numFmtId="0" hierarchy="185" level="32767"/>
+    <cacheField name="[PURCHASE DATE].[PDAT Month Number].[PDAT Month Number]" caption="PDAT Month Number" numFmtId="0" hierarchy="104" level="1">
+      <sharedItems count="1">
+        <s v="[PURCHASE DATE].[PDAT Month Number].&amp;[12]" c="12"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Year]" caption="PDAT Year" numFmtId="0" hierarchy="111" level="1">
+      <sharedItems count="1">
+        <s v="[PURCHASE DATE].[Year-Mon-Day].[PDAT Year].[2012]" c="2012"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY]" caption="PDAT Month KEY" numFmtId="0" hierarchy="111" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key]" caption="PDAT Key" numFmtId="0" hierarchy="111" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Month Abbreviation]" caption="PDAT Month Abbreviation" propertyName="PDAT Month Abbreviation" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Month Name]" caption="PDAT Month Name" propertyName="PDAT Month Name" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Month Number]" caption="PDAT Month Number" propertyName="PDAT Month Number" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Month KEY].[PDAT Year]" caption="PDAT Year" propertyName="PDAT Year" numFmtId="0" hierarchy="111" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Date]" caption="PDAT Date" propertyName="PDAT Date" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Month]" caption="PDAT Day Of Month" propertyName="PDAT Day Of Month" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Quarter]" caption="PDAT Day Of Quarter" propertyName="PDAT Day Of Quarter" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Week]" caption="PDAT Day Of Week" propertyName="PDAT Day Of Week" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Day Of Year]" caption="PDAT Day Of Year" propertyName="PDAT Day Of Year" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Full Date Description]" caption="PDAT Full Date Description" propertyName="PDAT Full Date Description" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Month KEY]" caption="PDAT Month KEY" propertyName="PDAT Month KEY" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Week]" caption="PDAT Week" propertyName="PDAT Week" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PURCHASE DATE].[Year-Mon-Day].[PDAT Key].[PDAT Weekday Or Weekend]" caption="PDAT Weekday Or Weekend" propertyName="PDAT Weekday Or Weekend" numFmtId="0" hierarchy="111" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="187">
     <cacheHierarchy uniqueName="[CUSTOMER].[CUST ID]" caption="CUST ID" attribute="1" defaultMemberUniqueName="[CUSTOMER].[CUST ID].[All]" allUniqueName="[CUSTOMER].[CUST ID].[All]" dimensionUniqueName="[CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
@@ -1235,14 +1437,26 @@
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Full Date Description]" caption="PDAT Full Date Description" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Full Date Description].[All]" allUniqueName="[PURCHASE DATE].[PDAT Full Date Description].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Abbreviation]" caption="PDAT Month Abbreviation" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Abbreviation].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Abbreviation].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Name]" caption="PDAT Month Name" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Name].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Name].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Number]" caption="PDAT Month Number" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Month Number]" caption="PDAT Month Number" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" allUniqueName="[PURCHASE DATE].[PDAT Month Number].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="46"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Quarter]" caption="PDAT Quarter" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Quarter].[All]" allUniqueName="[PURCHASE DATE].[PDAT Quarter].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Quarter Abbreviation]" caption="PDAT Quarter Abbreviation" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Quarter Abbreviation].[All]" allUniqueName="[PURCHASE DATE].[PDAT Quarter Abbreviation].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Quarter Name]" caption="PDAT Quarter Name" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Quarter Name].[All]" allUniqueName="[PURCHASE DATE].[PDAT Quarter Name].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Week Of Quarter]" caption="PDAT Week Of Quarter" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Week Of Quarter].[All]" allUniqueName="[PURCHASE DATE].[PDAT Week Of Quarter].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Week Of Year]" caption="PDAT Week Of Year" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Week Of Year].[All]" allUniqueName="[PURCHASE DATE].[PDAT Week Of Year].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[PDAT Weekday Or Weekend]" caption="PDAT Weekday Or Weekend" attribute="1" time="1" defaultMemberUniqueName="[PURCHASE DATE].[PDAT Weekday Or Weekend].[All]" allUniqueName="[PURCHASE DATE].[PDAT Weekday Or Weekend].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Mon-Day]" caption="Year-Mon-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Mon-Day]" caption="Year-Mon-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Mon-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="47"/>
+        <fieldUsage x="48"/>
+        <fieldUsage x="49"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day]" caption="Year-Qtr-Week-Day" time="1" defaultMemberUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" allUniqueName="[PURCHASE DATE].[Year-Qtr-Week-Day].[All]" dimensionUniqueName="[PURCHASE DATE]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[SALES ORG].[Sales_Org]" caption="Sales_Org" defaultMemberUniqueName="[SALES ORG].[Sales_Org].[All]" allUniqueName="[SALES ORG].[Sales_Org].[All]" dimensionUniqueName="[SALES ORG]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[SALES ORG].[SORG Domain Manager Name]" caption="SORG Domain Manager Name" attribute="1" defaultMemberUniqueName="[SALES ORG].[SORG Domain Manager Name].[All]" allUniqueName="[SALES ORG].[SORG Domain Manager Name].[All]" dimensionUniqueName="[SALES ORG]" displayFolder="" count="0" unbalanced="0"/>
@@ -1398,9 +1612,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A5029BE-5A9F-486F-859F-CD03C1A84DBC}" name="PivotTable2" cacheId="96" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="45">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A5029BE-5A9F-486F-859F-CD03C1A84DBC}" name="PivotTable2" cacheId="23" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A4:C7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="62">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
@@ -1433,6 +1647,32 @@
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item s="1" x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="2">
+        <item s="1" c="1" x="0"/>
+        <item x="1" d="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -1450,8 +1690,18 @@
   <rowItems count="1">
     <i/>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="2">
+    <field x="45"/>
+    <field x="46"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="62" name="[PACKAGE].[Bathroom].[PKG Bathroom].&amp;[Full]" cap="Full"/>
@@ -1635,7 +1885,23 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="13">
+        <mp field="49"/>
+        <mp field="50"/>
+        <mp field="51"/>
+        <mp field="52"/>
+        <mp field="53"/>
+        <mp field="54"/>
+        <mp field="55"/>
+        <mp field="56"/>
+        <mp field="57"/>
+        <mp field="58"/>
+        <mp field="59"/>
+        <mp field="60"/>
+        <mp field="61"/>
+      </mps>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -1713,6 +1979,10 @@
     <pivotHierarchy/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="2">
+    <colHierarchyUsage hierarchyUsage="104"/>
+    <colHierarchyUsage hierarchyUsage="111"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -1725,9 +1995,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B99FAB6-92C0-48D2-B876-0571F5E13FCE}" name="PivotTable1" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="45">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B99FAB6-92C0-48D2-B876-0571F5E13FCE}" name="PivotTable1" cacheId="35" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A4:C7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="62">
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -1773,12 +2043,47 @@
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="1">
+        <item s="1" c="1" x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item s="1" x="0"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowItems count="1">
     <i/>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="2">
+    <field x="45"/>
+    <field x="61"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="22" hier="74" name="[PACKAGE].[Seat Material].[PKG Seat Material].&amp;[Leather]" cap="Leather"/>
@@ -1951,7 +2256,23 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="13">
+        <mp field="48"/>
+        <mp field="49"/>
+        <mp field="50"/>
+        <mp field="51"/>
+        <mp field="52"/>
+        <mp field="53"/>
+        <mp field="54"/>
+        <mp field="55"/>
+        <mp field="56"/>
+        <mp field="57"/>
+        <mp field="58"/>
+        <mp field="59"/>
+        <mp field="60"/>
+      </mps>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -2029,6 +2350,10 @@
     <pivotHierarchy/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="2">
+    <colHierarchyUsage hierarchyUsage="111"/>
+    <colHierarchyUsage hierarchyUsage="104"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -2041,9 +2366,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AEC3B95-32B8-4010-856F-5B8DE6A557C6}" name="PivotTable2" cacheId="134" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A4:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="46">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AEC3B95-32B8-4010-856F-5B8DE6A557C6}" name="PivotTable2" cacheId="50" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A4:C8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="63">
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="1">
         <item s="1" c="1" x="0"/>
@@ -2098,6 +2423,31 @@
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item s="1" x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="1">
+        <item s="1" c="1" x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="-2"/>
@@ -2110,8 +2460,18 @@
       <x v="1"/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="2">
+    <field x="46"/>
+    <field x="47"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="0" hier="62" name="[PACKAGE].[Bathroom].[PKG Bathroom].&amp;[Full]" cap="Full"/>
@@ -2279,7 +2639,23 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="13">
+        <mp field="50"/>
+        <mp field="51"/>
+        <mp field="52"/>
+        <mp field="53"/>
+        <mp field="54"/>
+        <mp field="55"/>
+        <mp field="56"/>
+        <mp field="57"/>
+        <mp field="58"/>
+        <mp field="59"/>
+        <mp field="60"/>
+        <mp field="61"/>
+        <mp field="62"/>
+      </mps>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -2360,6 +2736,10 @@
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="-2"/>
   </rowHierarchiesUsage>
+  <colHierarchiesUsage count="2">
+    <colHierarchyUsage hierarchyUsage="104"/>
+    <colHierarchyUsage hierarchyUsage="111"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -2668,21 +3048,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40B7AE3-15F6-4EDA-887F-33D125CB2428}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="97" width="49.77734375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="197" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2690,7 +3073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2698,14 +3081,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>68223</v>
+      <c r="B7" s="1">
+        <v>818</v>
+      </c>
+      <c r="C7" s="1">
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -2715,21 +3117,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFE9067-5171-456B-83FC-1F282A28ED3F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="97" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="97" width="49.77734375" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2737,7 +3140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2745,14 +3148,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>17628303443</v>
+      <c r="B7" s="1">
+        <v>212256914</v>
+      </c>
+      <c r="C7" s="1">
+        <v>212256914</v>
       </c>
     </row>
   </sheetData>
@@ -2762,21 +3184,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2CE027-7AE9-457A-9942-114A930597A0}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="97" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="97" width="49.77734375" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2784,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2792,34 +3215,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>17628303443</v>
+      <c r="B7" s="1">
+        <v>212256914</v>
+      </c>
+      <c r="C7" s="1">
+        <v>212256914</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <v>68223</v>
+      <c r="B8" s="1">
+        <v>818</v>
+      </c>
+      <c r="C8" s="1">
+        <v>818</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <f>GETPIVOTDATA("[Measures].[RRV Actual Sales Amount In Dollars]",$A$4)/GETPIVOTDATA("[Measures].[RRV SALES Count]",$A$4)</f>
-        <v>258392.38149890798</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>GETPIVOTDATA("[Measures].[RRV Actual Sales Amount In Dollars]",$A$4,"[PURCHASE DATE].[PDAT Month Number]","[PURCHASE DATE].[PDAT Month Number].&amp;[12]","[PURCHASE DATE].[Year-Mon-Day]","[PURCHASE DATE].[Year-Mon-Day].[PDAT Year].[2012]")/GETPIVOTDATA("[Measures].[RRV SALES Count]",$A$4,"[PURCHASE DATE].[PDAT Month Number]","[PURCHASE DATE].[PDAT Month Number].&amp;[12]","[PURCHASE DATE].[Year-Mon-Day]","[PURCHASE DATE].[Year-Mon-Day].[PDAT Year].[2012]")</f>
+        <v>259482.77995110024</v>
       </c>
     </row>
   </sheetData>
